--- a/formatted_products.xlsx
+++ b/formatted_products.xlsx
@@ -7,20 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Handle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
   <si>
     <t>Command</t>
   </si>
@@ -70,9 +64,6 @@
     <t>Image Alt Text</t>
   </si>
   <si>
-    <t>Variant ID</t>
-  </si>
-  <si>
     <t>Variant Command</t>
   </si>
   <si>
@@ -82,27 +73,15 @@
     <t>Variant SKU</t>
   </si>
   <si>
-    <t>Variant Weight</t>
-  </si>
-  <si>
-    <t>Variant Weight Unit</t>
-  </si>
-  <si>
     <t>Variant Price</t>
   </si>
   <si>
-    <t>Variant Requires Shipping</t>
-  </si>
-  <si>
     <t>Variant Taxable</t>
   </si>
   <si>
     <t>Variant Image</t>
   </si>
   <si>
-    <t>Variant Inventory Tracker</t>
-  </si>
-  <si>
     <t>Variant Inventory Policy</t>
   </si>
   <si>
@@ -124,7 +103,7 @@
     <t>Metafield: my_fields.description2 [multi_line_text_field]</t>
   </si>
   <si>
-    <t>Metafield: my_fields.dosage [single_line_text_field]</t>
+    <t>Metafield: my_fields.dosage [multi_line_text_field]</t>
   </si>
   <si>
     <t>Metafield: my_fields.ingredients [single_line_text_field]</t>
@@ -136,7 +115,10 @@
     <t>Metafield: my_fields.product_id_2 [single_line_text_field]</t>
   </si>
   <si>
-    <t>Metafield: my_fields.brand_description [single_line_text_field]Metafield: my_fields.din [single_line_text_field]</t>
+    <t>Metafield: my_fields.brand_description [multi_line_text_field]</t>
+  </si>
+  <si>
+    <t>Metafield: my_fields.din [single_line_text_field]</t>
   </si>
   <si>
     <t>Metafield: my_fields.allergens [multi_line_text_field]</t>
@@ -145,14 +127,282 @@
     <t>Metafield: my_fields.product_description [single_line_text_field]</t>
   </si>
   <si>
-    <t>Stock ID</t>
+    <t>Metafield: my_fields.country_of_origin [single_line_text_field]</t>
+  </si>
+  <si>
+    <t>MERGE</t>
+  </si>
+  <si>
+    <t>All Purpose Cleaner- Citrus Zest 4L</t>
+  </si>
+  <si>
+    <t>Disinfectant 99.9% Thyme &amp;Citrus 4L</t>
+  </si>
+  <si>
+    <t>Laundry Det. Wildflowers (160)</t>
+  </si>
+  <si>
+    <t>Dishwashing Liquid-Citrus Zest</t>
+  </si>
+  <si>
+    <t>Laundry Detergent Unscented (160)</t>
+  </si>
+  <si>
+    <t>Laundry Detergent Citrus Zest (160)</t>
+  </si>
+  <si>
+    <t>Laundry Det.Pink Grapefruit (160)</t>
+  </si>
+  <si>
+    <t>Dishwash Liq. Green Apple &amp; Basil</t>
+  </si>
+  <si>
+    <t>Dishwash Liq. Coriander &amp; Olive</t>
+  </si>
+  <si>
+    <t>Dishwashing Liq. Pink Grapefruit</t>
+  </si>
+  <si>
+    <t>ATTITUDE Nature+Technology™ All Purpose Cleaner formula contains plant- and mineral- based ingredients like saponin, a natural cleansing agent, your entire house will be sparkling clean!</t>
+  </si>
+  <si>
+    <t>Its reassuring and hypoallergenic formula contains plant and mineral derived ingredients like saponin and green tea extract to clean your home naturally.</t>
+  </si>
+  <si>
+    <t>Liven up your laundry routine with ATTITUDE Nature + Technology™ Laundry Detergent – Wildflowers. ECOLOGO Certified and formulated with only natural and plant-derived ingredients like green tea extract, our hypoallergenic laundry detergent will keep your clothes smelling fresh and clean thanks to its advanced deodorizing formula. Plus, it’s biodegradable and sustainable, and contains no irritating enzymes – making it perfect for your family and the environment. Laundry away, worry-free!</t>
+  </si>
+  <si>
+    <t>ATTITUDE’s efficient Dishwashing Liquid is scented with energizing citrus and uses only worry-free, plant- and mineral-based hypoallergenic ingredients that are 100% safe for your family.</t>
+  </si>
+  <si>
+    <t>This product is ECOLOGO certified, biodegradable and free from irritating enzymes, which makes it an ally for the whole family and our planet! The ODORLESS liquid laundry detergent has been specially developed for people with a sensitivity to fragrances!</t>
+  </si>
+  <si>
+    <t>Our laundry detergent is as gentle on your clothes as it is on your skin. It contains no enzymes and is suitable for the entire family. Plus, our hypoallergenic formula is enhanced with an energizing citrus scent.</t>
+  </si>
+  <si>
+    <t>Featuring green tea extract, a natural and effective antibacterial agent, our ECOLOGO® Certified laundry detergent will keep your family – and the environment – happy while keeping your clothes clean! Not only is it hypoallergenic, dermatologically-tested and free of irritating enzymes, it also offers advanced deodorizing action to ensure your clothes smell fresh!</t>
+  </si>
+  <si>
+    <t>Our unique cleansing formula is made with deep-cleansing agents like saponin, and uses natural, plant-based and hypoallergenic ingredients that are good for you and your family. It’s formulated with a gentle foaming cleansing action that is tough on grease but soft on hands, so you can use it daily, worry-free!</t>
+  </si>
+  <si>
+    <t>Made with hypoallergenic, plant- and mineral-based ingredients like cleansing saponin, this natural dishwashing liquid boasts deep-cleansing and degreasing properties that are tough on grease but soft on hands. Delicately scented with a fresh coriander and olive aroma, you’ll want to do the dishes every day! Plus, it’s ECOLOGO® Certified for worry-free cleaning!</t>
+  </si>
+  <si>
+    <t>ECOLOGO Certified and elaborated with natural, hypoallergenic and plant and mineral based ingredients like green tea, our degreasing formula will help remove stubborn food residue from dishes, pots and pans. That means less scrubbing, more free time!</t>
+  </si>
+  <si>
+    <t>Attitude</t>
+  </si>
+  <si>
+    <t>Household Cleaners &amp; Supplies, Cleaning Supplies</t>
+  </si>
+  <si>
+    <t>Household Cleaners &amp; Supplies, Liquid Laundry Products</t>
+  </si>
+  <si>
+    <t>Household Cleaners &amp; Supplies, Dishwashing Products</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137001</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137003</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137004</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137005</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137006</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137007</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137008</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137009</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137010</t>
+  </si>
+  <si>
+    <t>https://plic.puritylife.com/products/image/137011</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>4.0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian_x000D_
+Vegan_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made with plant- and mineral-based ingredients, our All Purpose Cleaner is a worry-free way to get the surfaces in your home sparkling_x000D_
+Containing no cancer-causing chemicals, it’s safe for kitchens, kids, kittens — whatever you love!_x000D_
+Suitable for sensitive skin: dermatologically tested to minimize skin irritation._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you know that some viruses can live up to seven days on household surfaces? In addition, studies have found that an average home can house over 340 different types of bacteria! Keep household germs away with ATTITUDE’s Nature + TechnologyTM All Purpose Cleaner Disinfectant 99.9% – Thyme &amp; Citrus_x000D_
+At ATTITUDE, caring for the environment and reducing plastic is a priority, that’s why our Nature + Technology™ All Purpose Cleaner Disinfectant 99.9% – Thyme &amp; Citrus and other products are now available in a simple and convenient eco-refill packaging!_x000D_
+Its worry-free and hypoallergenic formula is developed with plant- and mineral-based ingredients such as saponin for a natural way to clean your home!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They say flowers have therapeutic properties capable of healing the mind, body and soul. Liven up your laundry routine with ATTITUDE Nature + Technology™ Laundry Detergent – Wildflowers._x000D_
+Hypoallergenic and dermatologically-tested: free of dyes, known allergens and irritants._x000D_
+ECOLOGO Certified: sustainable and biodegradable product with low impact on health and the environment. PETA Certified: 100% vegan and cruelty-free._x000D_
+Designed to work in High Efficiency (HE) and standard washing machines._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you know soap works by pushing away residue and grease? It’s like a force field against food debris! Keep your kitchen sink and dishes spick and span with ATTITUDE Nature + TechnologyTM Dishwashing Liquid – Citrus Zest_x000D_
+Our unique formula is made with deep-cleansing and antibacterial agents like saponin, and uses natural, plant-based and hypoallergenic ingredients_x000D_
+Plus, it’s ECOLOGO® Certified, sustainable and biodegradable, with foaming action that is tough on grease but soft on hands, so you can use it daily, worry-free!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you know many laundry detergents contain enzymes that digest the dirt right off your clothes? Unfortunately, these enzymes can also irritate your delicate skin._x000D_
+ATTITUDE Nature + TechnologyTM Laundry Detergent – Unscented is ECOLOGO® Certified, sustainable and biodegradable and uses only natural and effective ingredients such as antibacterial green tea extract. Our laundry detergent is as gentle on your clothes as it is on your skin._x000D_
+Hypoallergenic and tested by dermatologists: free of dyes, known allergens and skin-irritating ingredients._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTITUDE Nature + TechnologyTM Laundry Detergent – Citrus Zest is ECOLOGO® Certified, sustainable and biodegradable and uses only natural and effective ingredients such as antibacterial green tea extract._x000D_
+Dermatologically-tested and hypoallergenic: contains no known allergens, color dyes or skin-irritating enzymes. Free of artificial fragrances: naturally scented with an uplifting citrus aroma._x000D_
+ECOLOGO® Certified: sustainable and biodegradable. PETA Certified: never tested on animals and 100% vegan._x000D_
+Can be used in both HE (High Efficiency) and standard washing machines in cold water cycle._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you know the scent of citrus boosts your body’s production of serotonin, otherwise known as the “happy hormone”? Uplift laundry day with the refreshing scent of ATTITUDE Nature + TechnologyTM Laundry Detergent – Pink Grapefruit._x000D_
+Formulated with advanced deodorizing properties for cold water._x000D_
+Hypoallergenic and dermatologically-tested: free of known allergens, dyes and skin irritants. Contains no artificial fragrances: a natural and invigorating pink grapefruit scent._x000D_
+ECOLOGO® Certified: complies with stringent third-party environmental performance standards. PETA Certified: 100% vegan, cruelty-free and containing no animal-derived ingredients._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you know soap works by pushing away residue and grease? It’s like a food force field! Keep your kitchen sink and dishes looking spick and span with ATTITUDE’s Nature + TechnologyTM Dishwashing Liquid – Green Apple &amp; Basil._x000D_
+Our unique cleansing formula is made with deep-cleansing agents like saponin, and uses natural, plant-based and hypoallergenic ingredients that are good for you and your family._x000D_
+It’s formulated with a gentle foaming cleansing action that is tough on grease but soft on hands, so you can use it daily, worry-free!_x000D_
+Graded A on EWG’s Guide to Healthy Cleaning._x000D_
+ECOLOGO® Certified: safe household product with minimal environmental impact. PETA Certified: cruelty-free and 100% vegan._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let’s face it: most of us put off the task of doing the dishes for a day or two. But did you know bacteria can double on your dirty dishes in as little as 20 minutes? Wash away germs, grease and food residue with ATTITUDE Nature + TechnologyTM Dishwashing Liquid – Coriander &amp; Olive._x000D_
+Made with hypoallergenic, plant- and mineral-based ingredients like cleansing saponin, this natural dishwashing liquid boasts deep-cleansing and degreasing properties that are tough on grease but soft on hands._x000D_
+Delicately scented with a fresh coriander and olive aroma, you’ll want to do the dishes every day! Plus, it’s ECOLOGO® Certified for worry-free cleaning!_x000D_
+ECOLOGO® Certified: sustainable household product with minimal environmental impact. PETA Certified: cruelty-free and 100% vegan._x000D_
+Made with plant-based ingredients like saponin to efficiently clean dirty dishes and wash away impurities. Advanced degreasing power that is gentle on hands but tough on grease._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTITUDEs efficient Dishwashing Liquid uses only worry-free, plant- and mineral-based hypoallergenic ingredients that are 100% safe for your family_x000D_
+Reuse &amp; refill your preferred dishwashing liquid bottles with our innovative low-plastic refill boxes. Using 68% less plastic that its bottle counterpart, ATTITUDE Nature + Technology™ Dishwashing Liquid – Pink Grapefruit BULK to go format includes more than five times the amount of product, which means less time running errands, and less packaging waste!_x000D_
+ECOLOGO Certified and elaborated with natural, hypoallergenic and plant and mineral based ingredients like green tea, our degreasing formula will help remove stubborn food residue from dishes, pots and pans. That means less scrubbing, more free time!_x000D_
+</t>
+  </si>
+  <si>
+    <t>Spray and wipe. It is advisable to test in an inconspicuous area.  If you are looking for a mindless cleaning solution, use ATTITUDE’s All-Purpose Cleaner. You may use this product to clean your house, car, barbecue, office, gym, yoga mat…/ Vaporisez et essuyez. Il est conseillé de tester dans une zone peu visible. Si vous recherchez une solution de nettoyage irréfléchie, utilisez le nettoyant tout usage d’ATTITUDE. Vous pouvez utiliser ce produit pour nettoyer votre maison, voiture, barbecue, bureau, salle de sport, tapis de yoga…</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Voir le tableau pour les instructions de dosage. Pour les taches tenaces, versez une petite quantité directement sur la tache et frottez ou laissez tremper avant de laver. Vérifiez toujours les étiquettes pour des instructions spéciales. GARDER HORS DE LA PORTÉE DES ENFANTS</t>
+  </si>
+  <si>
+    <t>See table for dosing instructions. For tough stains, pour a small quantity directly on stain and rub or allow soaking before washing. Always check labels for special instructions. /  Voir le tableau pour les instructions de dosage. Pour les taches tenaces, versez une petite quantité directement sur la tache et frottez ou laissez tremper avant de laver. Vérifiez toujours les étiquettes pour des instructions spéciales.</t>
+  </si>
+  <si>
+    <t>ENG: See table for dosing instructions. For tough stains, pour a small quantity directly on stain and rub or allow soaking before washing. Always check labels for special instructions. FR: Voir le tableau pour les instructions de dosage. Pour les taches tenaces, versez une petite quantité directement sur la tache et frottez-les ou laissez-les tremper avant de les laver. Toujours vérifier les étiquettes pour les instructions spéciales.</t>
+  </si>
+  <si>
+    <t>ENG: Use 2 mL per liter of hot water, or approximately 15 mL for water in a standard sink. Not designed for automatic dishwashers.
+For stubborn stains, pump directly onto the surface and scrub. FR: tilisez 2 mL par litre d'eau chaude ou environ 15 mL d'eau dans un évier standard. Non conçu pour les lave-vaisselle automatiques.Pour les taches tenaces, pomper directement sur la surface et frotter.</t>
+  </si>
+  <si>
+    <t>&lt;5% Non-ionic surfactants (caprylyl glucoside, myristyl glucoside). Contains also : water, propanediol, sodium citrate, saponins, terpineol (citrus), decanal (citrus), allyl heptanoate (sweet fruit).</t>
+  </si>
+  <si>
+    <t>Water, Caprylyl glucoside, Myristyl glucoside, Alcohol, Thyme extract, Fragrance, Dialkyl (50% C8-C10 25% C8 25% C10) (ACTIVE INGREDIENT), Dimethyl ammonium chloride (0.045%) (ACTIVE INGREDIENT)</t>
+  </si>
+  <si>
+    <t>Aqua/water/eau, vegetable anionic surfactants (sodium coco sulfate), vegetable non-ionic surfactants (lauryl glucoside), sodium citrate, sodium gluconate, methyldihydrojasmonate (jasmin), amyl salicylate (floral).</t>
+  </si>
+  <si>
+    <t>Aqua (solvent), Coco glucoside (surfactant), Myristyl glucoside (surfactant), Lauryl glucoside (surfactant), Sodium chloride (viscosity controller), Sodium gluconate (chelating agent), Sodium citrate (chelating agent).</t>
+  </si>
+  <si>
+    <t>5%-15% anionic surfactants / agents de surface anioniques (sodium coco sulfate), 5%-15% non-ionic surfactants / agents de surface non-ioniques (lauryl glucoside). Contains also / Contient aussi : Aqua / water / eau, sodium citrate, sodium gluconate, glycerin, camellia sinensis leaf (green tea/thé vert)extract.</t>
+  </si>
+  <si>
+    <t>5%-15% Vegetable anionic surfactants (sodium coco sulfate), 5%-15% vegetable non-ionic surfactants (lauryl glucoside). Contains also: Aqua / water / eau, sodium citrate, sodium gluconate, glycerin, camellia sinensis leaf (green tea) extract, terpineol (citrus), decanal (citrus), allyl caproate (sweet fruit).</t>
+  </si>
+  <si>
+    <t>5%-15% anionic surfactants (sodium coco sulfate), 5%-15% non-ionic surfactants (lauryl glucoside). Contains also : water, sodium citrate, sodium gluconate, glycerin, camellia sinensis leaf (green tea/thé vert) extract, allyl caproate (sweet fruit), geranyl acetate (herbal), allyl heptanoate (fruit).</t>
+  </si>
+  <si>
+    <t>&lt;5% Vegetable anionic surfactants (coco-glucoside), &lt;5% vegetable non-ionic surfactants (lauryl glucoside). Contains also: Aqua / water / eau, sodium chloride, glycerin, sodium gluconate, sodium citrate, saponins, triethyl citrate, gamma-undecalactone (sweet fruit), geranyl acetate (herbal), 3-hexenol (green leaves).</t>
+  </si>
+  <si>
+    <t>&lt;5% Vegetable anionic surfactants (coco-glucoside), &lt;5% vegetable non-ionic surfactants (lauryl glucoside). Contains also : Aqua / water / eau, sodium chloride, glycerin, sodium gluconate, sodium citrate, saponins, linalyl acetate (floral), methyldihydrojasmonate (jasmin), 3-hexenol (green leaves).</t>
+  </si>
+  <si>
+    <t>Eco friendly household cleaners, health and beauty products and baby products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains: _x000D_
+_x000D_
+May Contain:  Egg_x000D_
+ Dairy_x000D_
+ Mustard_x000D_
+ Peanuts_x000D_
+ Seafood_x000D_
+ Sesame_x000D_
+ Soy_x000D_
+ Sulfites_x000D_
+ Tree Nuts_x000D_
+ Tree Nuts_x000D_
+</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +417,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,16 +458,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,147 +766,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>137001</v>
+      </c>
+      <c r="T2">
+        <v>13.74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2">
+        <v>626232801804</v>
+      </c>
+      <c r="AG2">
+        <v>137001</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>137003</v>
+      </c>
+      <c r="T3">
+        <v>13.74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF3">
+        <v>626232809107</v>
+      </c>
+      <c r="AG3">
+        <v>137003</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3">
+        <v>2323176</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>137004</v>
+      </c>
+      <c r="T4">
+        <v>15.29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF4">
+        <v>626232820904</v>
+      </c>
+      <c r="AG4">
+        <v>137004</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>137005</v>
+      </c>
+      <c r="T5">
+        <v>14.5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF5">
+        <v>626232831726</v>
+      </c>
+      <c r="AG5">
+        <v>137005</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>137006</v>
+      </c>
+      <c r="T6">
+        <v>15.29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
+      <c r="Z6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF6">
+        <v>626232802054</v>
+      </c>
+      <c r="AG6">
+        <v>137006</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>137007</v>
+      </c>
+      <c r="T7">
+        <v>15.29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF7">
+        <v>626232820829</v>
+      </c>
+      <c r="AG7">
+        <v>137007</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>137008</v>
+      </c>
+      <c r="T8">
+        <v>15.29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF8">
+        <v>626232820867</v>
+      </c>
+      <c r="AG8">
+        <v>137008</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>137009</v>
+      </c>
+      <c r="T9">
+        <v>14.5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF9">
+        <v>626232831740</v>
+      </c>
+      <c r="AG9">
+        <v>137009</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>137010</v>
+      </c>
+      <c r="T10">
+        <v>14.5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF10">
+        <v>626232831757</v>
+      </c>
+      <c r="AG10">
+        <v>137010</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>137011</v>
+      </c>
+      <c r="T11">
+        <v>14.5</v>
+      </c>
+      <c r="U11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF11">
+        <v>626232831764</v>
+      </c>
+      <c r="AG11">
+        <v>137011</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="M3" r:id="rId3"/>
+    <hyperlink ref="V3" r:id="rId4"/>
+    <hyperlink ref="M4" r:id="rId5"/>
+    <hyperlink ref="V4" r:id="rId6"/>
+    <hyperlink ref="M5" r:id="rId7"/>
+    <hyperlink ref="V5" r:id="rId8"/>
+    <hyperlink ref="M6" r:id="rId9"/>
+    <hyperlink ref="V6" r:id="rId10"/>
+    <hyperlink ref="M7" r:id="rId11"/>
+    <hyperlink ref="V7" r:id="rId12"/>
+    <hyperlink ref="M8" r:id="rId13"/>
+    <hyperlink ref="V8" r:id="rId14"/>
+    <hyperlink ref="M9" r:id="rId15"/>
+    <hyperlink ref="V9" r:id="rId16"/>
+    <hyperlink ref="M10" r:id="rId17"/>
+    <hyperlink ref="V10" r:id="rId18"/>
+    <hyperlink ref="M11" r:id="rId19"/>
+    <hyperlink ref="V11" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/formatted_products.xlsx
+++ b/formatted_products.xlsx
@@ -380,18 +380,17 @@
     <t>Eco friendly household cleaners, health and beauty products and baby products.</t>
   </si>
   <si>
-    <t xml:space="preserve">Contains: _x000D_
-_x000D_
-May Contain:  Egg_x000D_
- Dairy_x000D_
- Mustard_x000D_
- Peanuts_x000D_
- Seafood_x000D_
- Sesame_x000D_
- Soy_x000D_
- Sulfites_x000D_
- Tree Nuts_x000D_
- Tree Nuts_x000D_
+    <t xml:space="preserve">May Contain:_x000D_
+ Egg (M)_x000D_
+ Dairy (M)_x000D_
+ Mustard (M)_x000D_
+ Peanuts (M)_x000D_
+ Seafood (M)_x000D_
+ Sesame (M)_x000D_
+ Soy (M)_x000D_
+ Sulfites (M)_x000D_
+ Tree Nuts (M)_x000D_
+ Wheat Gluten (M)_x000D_
 </t>
   </si>
   <si>
